--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H2">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0165385</v>
+        <v>0.11435</v>
       </c>
       <c r="N2">
-        <v>0.033077</v>
+        <v>0.2287</v>
       </c>
       <c r="O2">
-        <v>0.1118737394178746</v>
+        <v>0.4383739845709736</v>
       </c>
       <c r="P2">
-        <v>0.08909725626673418</v>
+        <v>0.3422622833548588</v>
       </c>
       <c r="Q2">
-        <v>0.04397608650049999</v>
+        <v>0.01119295916666667</v>
       </c>
       <c r="R2">
-        <v>0.2638565190029999</v>
+        <v>0.067157755</v>
       </c>
       <c r="S2">
-        <v>0.0522689560760969</v>
+        <v>0.007770776339797709</v>
       </c>
       <c r="T2">
-        <v>0.04162746859574987</v>
+        <v>0.006067065444364831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H3">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0007430000000000001</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="N3">
-        <v>0.002229</v>
+        <v>0.408317</v>
       </c>
       <c r="O3">
-        <v>0.005025981097891636</v>
+        <v>0.521776855438176</v>
       </c>
       <c r="P3">
-        <v>0.006004105094735028</v>
+        <v>0.61106912441017</v>
       </c>
       <c r="Q3">
-        <v>0.001975646659</v>
+        <v>0.01332247633888889</v>
       </c>
       <c r="R3">
-        <v>0.017780819931</v>
+        <v>0.11990228705</v>
       </c>
       <c r="S3">
-        <v>0.00234820777969828</v>
+        <v>0.009249205896333428</v>
       </c>
       <c r="T3">
-        <v>0.002805200819298197</v>
+        <v>0.01083203306098258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +646,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H4">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.055711</v>
+        <v>0.01039466666666667</v>
       </c>
       <c r="N4">
-        <v>0.111422</v>
+        <v>0.031184</v>
       </c>
       <c r="O4">
-        <v>0.3768538801408358</v>
+        <v>0.03984915999085044</v>
       </c>
       <c r="P4">
-        <v>0.3001298330487063</v>
+        <v>0.04666859223497122</v>
       </c>
       <c r="Q4">
-        <v>0.148136273243</v>
+        <v>0.001017464622222222</v>
       </c>
       <c r="R4">
-        <v>0.888817639458</v>
+        <v>0.009157181600000001</v>
       </c>
       <c r="S4">
-        <v>0.1760713373011721</v>
+        <v>0.000706380671564646</v>
       </c>
       <c r="T4">
-        <v>0.1402248029106522</v>
+        <v>0.0008272644023483732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.659013</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H5">
-        <v>7.977039</v>
+        <v>0.185704</v>
       </c>
       <c r="I5">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J5">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0005896666666666667</v>
+        <v>0.11435</v>
       </c>
       <c r="N5">
-        <v>0.001769</v>
+        <v>0.2287</v>
       </c>
       <c r="O5">
-        <v>0.003988766515105565</v>
+        <v>0.4383739845709736</v>
       </c>
       <c r="P5">
-        <v>0.004765034505422282</v>
+        <v>0.3422622833548588</v>
       </c>
       <c r="Q5">
-        <v>0.001567931332333333</v>
+        <v>0.007078417466666666</v>
       </c>
       <c r="R5">
-        <v>0.014111381991</v>
+        <v>0.0424705048</v>
       </c>
       <c r="S5">
-        <v>0.001863606802281856</v>
+        <v>0.004914232076982101</v>
       </c>
       <c r="T5">
-        <v>0.002226289927922168</v>
+        <v>0.003836806815189261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.659013</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H6">
-        <v>7.977039</v>
+        <v>0.185704</v>
       </c>
       <c r="I6">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J6">
-        <v>0.4672138103908383</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.07424966666666666</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="N6">
-        <v>0.222749</v>
+        <v>0.408317</v>
       </c>
       <c r="O6">
-        <v>0.5022576328282925</v>
+        <v>0.521776855438176</v>
       </c>
       <c r="P6">
-        <v>0.6000037710844023</v>
+        <v>0.61106912441017</v>
       </c>
       <c r="Q6">
-        <v>0.1974308289123333</v>
+        <v>0.008425122240888891</v>
       </c>
       <c r="R6">
-        <v>1.776877460211</v>
+        <v>0.07582610016800001</v>
       </c>
       <c r="S6">
-        <v>0.2346617024315891</v>
+        <v>0.00584918961952223</v>
       </c>
       <c r="T6">
-        <v>0.2803300481372158</v>
+        <v>0.006850168116998837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,75 +832,75 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H7">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I7">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J7">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0165385</v>
+        <v>0.01039466666666667</v>
       </c>
       <c r="N7">
-        <v>0.033077</v>
+        <v>0.031184</v>
       </c>
       <c r="O7">
-        <v>0.1118737394178746</v>
+        <v>0.03984915999085044</v>
       </c>
       <c r="P7">
-        <v>0.08909725626673418</v>
+        <v>0.04666859223497122</v>
       </c>
       <c r="Q7">
-        <v>0.05014802867433332</v>
+        <v>0.0006434437262222224</v>
       </c>
       <c r="R7">
-        <v>0.300888172046</v>
+        <v>0.005790993536000001</v>
       </c>
       <c r="S7">
-        <v>0.05960478334177768</v>
+        <v>0.0004467145112625269</v>
       </c>
       <c r="T7">
-        <v>0.04746978767098432</v>
+        <v>0.000523161275578758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,60 +909,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.032199333333333</v>
+        <v>5.362122666666667</v>
       </c>
       <c r="H8">
-        <v>9.096598</v>
+        <v>16.086368</v>
       </c>
       <c r="I8">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="J8">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0007430000000000001</v>
+        <v>0.11435</v>
       </c>
       <c r="N8">
-        <v>0.002229</v>
+        <v>0.2287</v>
       </c>
       <c r="O8">
-        <v>0.005025981097891636</v>
+        <v>0.4383739845709736</v>
       </c>
       <c r="P8">
-        <v>0.006004105094735028</v>
+        <v>0.3422622833548588</v>
       </c>
       <c r="Q8">
-        <v>0.002252924104666667</v>
+        <v>0.6131587269333333</v>
       </c>
       <c r="R8">
-        <v>0.020276316942</v>
+        <v>3.6789523616</v>
       </c>
       <c r="S8">
-        <v>0.002677773318193357</v>
+        <v>0.4256889761541938</v>
       </c>
       <c r="T8">
-        <v>0.003198904275436831</v>
+        <v>0.3323584110953046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,60 +971,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.032199333333333</v>
+        <v>5.362122666666667</v>
       </c>
       <c r="H9">
-        <v>9.096598</v>
+        <v>16.086368</v>
       </c>
       <c r="I9">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="J9">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.055711</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="N9">
-        <v>0.111422</v>
+        <v>0.408317</v>
       </c>
       <c r="O9">
-        <v>0.3768538801408358</v>
+        <v>0.521776855438176</v>
       </c>
       <c r="P9">
-        <v>0.3001298330487063</v>
+        <v>0.61106912441017</v>
       </c>
       <c r="Q9">
-        <v>0.1689268570593333</v>
+        <v>0.7298152802951112</v>
       </c>
       <c r="R9">
-        <v>1.013561142356</v>
+        <v>6.568337522656001</v>
       </c>
       <c r="S9">
-        <v>0.2007825428396637</v>
+        <v>0.5066784599223203</v>
       </c>
       <c r="T9">
-        <v>0.1599050301380541</v>
+        <v>0.5933869232321886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,108 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.032199333333333</v>
+        <v>5.362122666666667</v>
       </c>
       <c r="H10">
-        <v>9.096598</v>
+        <v>16.086368</v>
       </c>
       <c r="I10">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="J10">
-        <v>0.5327861896091618</v>
+        <v>0.9710635008845373</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0005896666666666667</v>
+        <v>0.01039466666666667</v>
       </c>
       <c r="N10">
-        <v>0.001769</v>
+        <v>0.031184</v>
       </c>
       <c r="O10">
-        <v>0.003988766515105565</v>
+        <v>0.03984915999085044</v>
       </c>
       <c r="P10">
-        <v>0.004765034505422282</v>
+        <v>0.04666859223497122</v>
       </c>
       <c r="Q10">
-        <v>0.001787986873555556</v>
+        <v>0.05573747774577779</v>
       </c>
       <c r="R10">
-        <v>0.016091881862</v>
+        <v>0.5016372997120001</v>
       </c>
       <c r="S10">
-        <v>0.002125159712823709</v>
+        <v>0.03869606480802326</v>
       </c>
       <c r="T10">
-        <v>0.002538744577500114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.032199333333333</v>
-      </c>
-      <c r="H11">
-        <v>9.096598</v>
-      </c>
-      <c r="I11">
-        <v>0.5327861896091618</v>
-      </c>
-      <c r="J11">
-        <v>0.5327861896091618</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07424966666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.222749</v>
-      </c>
-      <c r="O11">
-        <v>0.5022576328282925</v>
-      </c>
-      <c r="P11">
-        <v>0.6000037710844023</v>
-      </c>
-      <c r="Q11">
-        <v>0.2251397897668889</v>
-      </c>
-      <c r="R11">
-        <v>2.026258107902</v>
-      </c>
-      <c r="S11">
-        <v>0.2675959303967034</v>
-      </c>
-      <c r="T11">
-        <v>0.3196737229471865</v>
+        <v>0.04531816655704408</v>
       </c>
     </row>
   </sheetData>
